--- a/resources/Dates_W21A.xlsx
+++ b/resources/Dates_W21A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>url</t>
   </si>
@@ -222,12 +222,6 @@
   </si>
   <si>
     <t>LogRegAnalysis</t>
-  </si>
-  <si>
-    <t>Logistic -- Summary</t>
-  </si>
-  <si>
-    <t>LogRegSummary</t>
   </si>
 </sst>
 </file>
@@ -611,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1150,10 +1144,7 @@
         <v>44256</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_W21A.xlsx
+++ b/resources/Dates_W21A.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>url</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>LogRegAnalysis</t>
+  </si>
+  <si>
+    <t>GetOrganized</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,6 +648,9 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">

--- a/resources/Dates_W21A.xlsx
+++ b/resources/Dates_W21A.xlsx
@@ -215,9 +215,6 @@
     <t>LogRegFoundations</t>
   </si>
   <si>
-    <t>LogRegModel</t>
-  </si>
-  <si>
     <t>Logistic -- Analysis</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>GetOrganized</t>
+  </si>
+  <si>
+    <t>LogRegModels</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1117,7 +1117,7 @@
         <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1132,10 +1132,10 @@
         <v>44253</v>
       </c>
       <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s">
         <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">

--- a/resources/Dates_W21A.xlsx
+++ b/resources/Dates_W21A.xlsx
@@ -110,9 +110,6 @@
     <t>ANOVA1Summary</t>
   </si>
   <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
     <t>ANOVA2 -- Conceptual Foundation</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>LogRegModels</t>
+  </si>
+  <si>
+    <t>Capstone Assignment</t>
   </si>
 </sst>
 </file>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>44223</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -826,10 +826,10 @@
         <v>44230</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -844,10 +844,10 @@
         <v>44231</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,10 +862,10 @@
         <v>44232</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -880,10 +880,10 @@
         <v>44235</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,10 +898,10 @@
         <v>44236</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -916,10 +916,10 @@
         <v>44237</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -934,10 +934,10 @@
         <v>44238</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -952,10 +952,10 @@
         <v>44239</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -970,10 +970,10 @@
         <v>44242</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>44243</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1006,10 +1006,10 @@
         <v>44244</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,10 +1024,10 @@
         <v>44245</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1042,10 +1042,10 @@
         <v>44246</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1060,10 +1060,10 @@
         <v>44249</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1078,10 +1078,10 @@
         <v>44250</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1096,10 +1096,10 @@
         <v>44251</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>44252</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1132,10 +1132,10 @@
         <v>44253</v>
       </c>
       <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,7 +1150,7 @@
         <v>44256</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1165,7 +1165,7 @@
         <v>44257</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>44258</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1195,7 +1195,7 @@
         <v>44259</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>44260</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
